--- a/Updated_Results.xlsx
+++ b/Updated_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luisvazquez/Master's Thesis/HierarchicalShrinkage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DF22A06F-7C2F-0944-9A60-B42701C0DC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525FD25E-A7AE-FD48-9F2E-BB500576F0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15740" xr2:uid="{2EBCE783-B161-144A-90BC-D660DBE44571}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{2EBCE783-B161-144A-90BC-D660DBE44571}"/>
   </bookViews>
   <sheets>
     <sheet name="Temp" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="26">
   <si>
     <t>RF (ADULT INCOME)</t>
   </si>
@@ -62,13 +62,49 @@
   </si>
   <si>
     <t>PCA-HS-RF (CREDIT CARD)</t>
+  </si>
+  <si>
+    <t>DT (ADULT INCOME)</t>
+  </si>
+  <si>
+    <t>PCA-DT (ADULT INCOME)</t>
+  </si>
+  <si>
+    <t>HS-DT (ADULT INCOME)</t>
+  </si>
+  <si>
+    <t>PCA-HS-DT (ADULT INCOME)</t>
+  </si>
+  <si>
+    <t>DT (TITANIC)</t>
+  </si>
+  <si>
+    <t>PCA-DT (TITANIC)</t>
+  </si>
+  <si>
+    <t>HS-DT (TITANIC)</t>
+  </si>
+  <si>
+    <t>PCA-HS-DT (TITANIC)</t>
+  </si>
+  <si>
+    <t>DT (CREDIT CARD)</t>
+  </si>
+  <si>
+    <t>PCA-DT (CREDIT CARD)</t>
+  </si>
+  <si>
+    <t>HS-DT (CREDIT CARD)</t>
+  </si>
+  <si>
+    <t>PCA-HS-DT (CREDIT CARD)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -203,8 +239,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,8 +427,26 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -500,6 +561,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -545,9 +668,39 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -923,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5047C33F-1DAF-DE4A-90AD-D71F0F878BBE}">
-  <dimension ref="B2:I18"/>
+  <dimension ref="B1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -936,213 +1089,638 @@
     <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="1" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="E2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="H2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="L2" s="11"/>
+      <c r="N2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="O2" s="11"/>
+      <c r="Q2" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4">
+      <c r="R2" s="11"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B4" s="3">
+        <v>80.933697989999999</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.9687709999999998E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>77.871508379999995</v>
+      </c>
+      <c r="F4" s="9">
+        <v>4.88E-5</v>
+      </c>
+      <c r="H4" s="3">
+        <v>72.332166670000007</v>
+      </c>
+      <c r="I4" s="4">
+        <v>9.1922310000000004E-3</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="3">
         <v>85.4480358</v>
       </c>
-      <c r="C4">
+      <c r="L4" s="4">
         <v>2.0264177000000001E-2</v>
       </c>
-      <c r="E4">
+      <c r="N4" s="3">
         <v>81.262569830000004</v>
       </c>
-      <c r="F4">
+      <c r="O4" s="4">
         <v>8.60387E-4</v>
       </c>
-      <c r="H4">
+      <c r="Q4" s="3">
         <v>81.373333329999994</v>
       </c>
-      <c r="I4">
+      <c r="R4" s="4">
         <v>6.7310260999999996E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5">
+    <row r="5" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5">
+        <v>0.16281321100000001</v>
+      </c>
+      <c r="C5" s="8">
+        <v>4.1999999999999998E-5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.801531891</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1.01E-5</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.242314585</v>
+      </c>
+      <c r="I5" s="6">
+        <v>2.3421299999999999E-4</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="5">
         <v>0.12756230499999999</v>
       </c>
-      <c r="C5">
+      <c r="L5" s="6">
         <v>2.051E-4</v>
       </c>
-      <c r="E5">
+      <c r="N5" s="5">
         <v>0.87855824199999999</v>
       </c>
-      <c r="F5" s="1">
+      <c r="O5" s="8">
         <v>3.26E-5</v>
       </c>
-      <c r="H5">
+      <c r="Q5" s="5">
         <v>0.140804965</v>
       </c>
-      <c r="I5">
+      <c r="R5" s="6">
         <v>5.1415499999999997E-4</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="6" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="E7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="H7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
+      <c r="L7" s="11"/>
+      <c r="N7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H7" t="s">
+      <c r="O7" s="11"/>
+      <c r="Q7" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9">
+      <c r="R7" s="11"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="3">
+        <v>77.540195589999996</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.1270014E-2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>66.430167600000004</v>
+      </c>
+      <c r="F9" s="9">
+        <v>3.5800000000000003E-5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>69.969666669999995</v>
+      </c>
+      <c r="I9" s="4">
+        <v>6.7665099999999999E-3</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="3">
         <v>83.627382729999994</v>
       </c>
-      <c r="C9">
+      <c r="L9" s="4">
         <v>8.5214672000000005E-2</v>
       </c>
-      <c r="E9">
+      <c r="N9" s="3">
         <v>69.826815640000007</v>
       </c>
-      <c r="F9">
+      <c r="O9" s="4">
         <v>9.8105200000000005E-4</v>
       </c>
-      <c r="H9">
+      <c r="Q9" s="3">
         <v>78.009666670000001</v>
       </c>
-      <c r="I9">
+      <c r="R9" s="4">
         <v>8.5423859000000005E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10">
+    <row r="10" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
+        <v>0.203880641</v>
+      </c>
+      <c r="C10" s="6">
+        <v>4.1278000000000002E-4</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.86289931600000003</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1.9300000000000002E-5</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.24117859699999999</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1.4210000000000001E-4</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="5">
         <v>0.172356234</v>
       </c>
-      <c r="C10">
+      <c r="L10" s="6">
         <v>5.73844E-4</v>
       </c>
-      <c r="E10">
+      <c r="N10" s="5">
         <v>0.91399562000000001</v>
       </c>
-      <c r="F10" s="1">
+      <c r="O10" s="8">
         <v>8.9699999999999998E-5</v>
       </c>
-      <c r="H10">
+      <c r="Q10" s="5">
         <v>0.164193434</v>
       </c>
-      <c r="I10">
+      <c r="R10" s="6">
         <v>9.7620499999999995E-4</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+    <row r="11" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="E12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="H12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E12" t="s">
+      <c r="L12" s="11"/>
+      <c r="N12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H12" t="s">
+      <c r="O12" s="11"/>
+      <c r="Q12" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+      <c r="R12" s="11"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B14" s="3">
+        <v>80.915464940000007</v>
+      </c>
+      <c r="C14" s="4">
+        <v>3.171845E-3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>78.189944130000001</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1.50097E-4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>72.309166669999996</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1.08754E-2</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="3">
+        <v>79.219293879999995</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0.16152838999999999</v>
+      </c>
+      <c r="N14" s="3">
+        <v>77.569832399999996</v>
+      </c>
+      <c r="O14" s="4">
+        <v>7.9043780000000001E-3</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>57.922499999999999</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0.237536623</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>0.17795771799999999</v>
+      </c>
+      <c r="C15" s="8">
+        <v>6.6699999999999995E-5</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.80555325799999999</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1.1E-5</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.246858773</v>
+      </c>
+      <c r="I15" s="6">
+        <v>1.9561890000000001E-3</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="5">
+        <v>0.33908750399999998</v>
+      </c>
+      <c r="L15" s="6">
+        <v>1.6605630000000001E-3</v>
+      </c>
+      <c r="N15" s="5">
+        <v>1.2336458809999999</v>
+      </c>
+      <c r="O15" s="6">
+        <v>1.6912900000000001E-4</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>0.62741508700000004</v>
+      </c>
+      <c r="R15" s="6">
+        <v>6.6867230000000003E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="E17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="H17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E17" t="s">
+      <c r="L17" s="11"/>
+      <c r="N17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H17" t="s">
+      <c r="O17" s="11"/>
+      <c r="Q17" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" t="s">
-        <v>4</v>
-      </c>
+      <c r="R17" s="11"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B19" s="3">
+        <v>77.542184649999996</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1.2128965E-2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>67.033519549999994</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1.15561E-4</v>
+      </c>
+      <c r="H19" s="3">
+        <v>69.869</v>
+      </c>
+      <c r="I19" s="4">
+        <v>8.0812019999999991E-3</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="3">
+        <v>63.615614119999996</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0.235416606</v>
+      </c>
+      <c r="N19" s="3">
+        <v>63.240223460000003</v>
+      </c>
+      <c r="O19" s="4">
+        <v>8.8777539999999999E-3</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>52.041333330000001</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0.27320138999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="5">
+        <v>0.19893782600000001</v>
+      </c>
+      <c r="C20" s="6">
+        <v>3.9916000000000002E-4</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.82708326099999996</v>
+      </c>
+      <c r="F20" s="8">
+        <v>2.0999999999999999E-5</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0.25749178700000003</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1.59696E-4</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="5">
+        <v>0.53625572300000002</v>
+      </c>
+      <c r="L20" s="6">
+        <v>3.9626990000000001E-3</v>
+      </c>
+      <c r="N20" s="5">
+        <v>1.5841120790000001</v>
+      </c>
+      <c r="O20" s="6">
+        <v>2.30654E-4</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>0.68478117100000002</v>
+      </c>
+      <c r="R20" s="6">
+        <v>1.0186308E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="J23" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="Q17:R17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>